--- a/biology/Microbiologie/Matrice_(microbiologie)/Matrice_(microbiologie).xlsx
+++ b/biology/Microbiologie/Matrice_(microbiologie)/Matrice_(microbiologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En microbiologie, une matrice est le milieu dans lequel les bactéries se développent (ou « sont cultivées »). C'est ainsi qu'une boîte de Petri de gélose peut constituer une matrice pour cultiver un échantillon prélevé sur une personne (par exemple un frottis de gorge).
  Portail de la microbiologie                     </t>
